--- a/analysis/thalamus/results/figures_tables/2-CP_and_MRI_disease_measures/choroid_associations.xlsx
+++ b/analysis/thalamus/results/figures_tables/2-CP_and_MRI_disease_measures/choroid_associations.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PRL" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="main" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="disability" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -520,7 +521,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -578,7 +579,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.1e-18</t>
+          <t>1.4e-18</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -615,7 +616,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4.9e-13</t>
+          <t>6.5e-13</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -652,7 +653,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.7e-12</t>
+          <t>2.3e-12</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -689,7 +690,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.6e-41</t>
+          <t>3.4e-41</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -726,7 +727,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5.7e-28</t>
+          <t>7.7e-28</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -763,7 +764,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>5.9e-21</t>
+          <t>7.8e-21</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -784,6 +785,210 @@
       <c r="G7" t="inlineStr">
         <is>
           <t>0.0417</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>SDMT</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-0.1582</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>[-0.268, -0.0483]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>EDSS</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>[-0.0256, 0.149]</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>outcome</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>coef</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>p_fdr</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>se</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ci</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ΔR2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>SDMT</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>-0.1582</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>[-0.268, -0.0483]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>EDSS_sqrt</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>[-0.0157, 0.158]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0023</t>
         </is>
       </c>
     </row>

--- a/analysis/thalamus/results/figures_tables/2-CP_and_MRI_disease_measures/choroid_associations.xlsx
+++ b/analysis/thalamus/results/figures_tables/2-CP_and_MRI_disease_measures/choroid_associations.xlsx
@@ -484,30 +484,30 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4312908760726992</v>
+        <v>0.4298842228978241</v>
       </c>
       <c r="C2" t="n">
-        <v>3.127087016647123e-05</v>
+        <v>3.054576339201057e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>0.103575891829325</v>
+        <v>0.1031055928930751</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2282858584206056</v>
+        <v>0.227800974222748</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6342958937247927</v>
+        <v>0.6319674715729002</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[0.228, 0.634]</t>
+          <t>[0.228, 0.632]</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.3197107911540913</v>
+        <v>0.3196289981126786</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09938841265702858</v>
+        <v>0.09930661961561593</v>
       </c>
     </row>
   </sheetData>
@@ -569,111 +569,111 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>WTV</t>
+          <t>SDMT</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-0.4179</t>
+          <t>-0.156</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.4e-18</t>
+          <t>0.006</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.0471</t>
+          <t>0.056</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[-0.51, -0.326]</t>
+          <t>[-0.266, -0.0469]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1376</t>
+          <t>0.02</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>T2LV_log1p</t>
+          <t>EDSS</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.3544</t>
+          <t>0.061</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6.5e-13</t>
+          <t>0.175</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.0489</t>
+          <t>0.045</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[0.259, 0.45]</t>
+          <t>[-0.0271, 0.149]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0981</t>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>cortical_thickness</t>
+          <t>WTV</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-0.3243</t>
+          <t>-0.416</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2.3e-12</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.0460</t>
+          <t>0.047</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[-0.414, -0.234]</t>
+          <t>[-0.509, -0.323]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0821</t>
+          <t>0.14</t>
         </is>
       </c>
     </row>
@@ -685,22 +685,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-0.2574</t>
+          <t>-0.257</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3.4e-41</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.0189</t>
+          <t>0.019</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[-0.294, -0.22]</t>
+          <t>[-0.295, -0.22]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0524</t>
+          <t>0.05</t>
         </is>
       </c>
     </row>
@@ -722,22 +722,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-0.2551</t>
+          <t>-0.255</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7.7e-28</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.0231</t>
+          <t>0.023</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[-0.3, -0.21]</t>
+          <t>[-0.301, -0.21]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0512</t>
+          <t>0.05</t>
         </is>
       </c>
     </row>
@@ -759,106 +759,106 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-0.2301</t>
+          <t>-0.230</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>7.8e-21</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.0243</t>
+          <t>0.024</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[-0.278, -0.182]</t>
+          <t>[-0.277, -0.182]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0417</t>
+          <t>0.04</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>SDMT</t>
+          <t>cortical_thickness</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-0.1582</t>
+          <t>-0.324</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.0055</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.0561</t>
+          <t>0.046</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[-0.268, -0.0483]</t>
+          <t>[-0.415, -0.234]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0176</t>
+          <t>0.08</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>EDSS</t>
+          <t>T2LV_log1p</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.0618</t>
+          <t>0.352</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.0446</t>
+          <t>0.049</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[-0.0256, 0.149]</t>
+          <t>[0.257, 0.447]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0013</t>
+          <t>0.10</t>
         </is>
       </c>
     </row>

--- a/analysis/thalamus/results/figures_tables/2-CP_and_MRI_disease_measures/choroid_associations.xlsx
+++ b/analysis/thalamus/results/figures_tables/2-CP_and_MRI_disease_measures/choroid_associations.xlsx
@@ -507,7 +507,7 @@
         <v>0.3196289981126786</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09930661961561593</v>
+        <v>9.930661961561594</v>
       </c>
     </row>
   </sheetData>
@@ -589,7 +589,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[-0.266, -0.0469]</t>
+          <t>[-0.266, -0.047]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -599,7 +599,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>1.71</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[-0.0271, 0.149]</t>
+          <t>[-0.027, 0.149]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -636,7 +636,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.12</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>13.62</t>
         </is>
       </c>
     </row>
@@ -700,7 +700,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[-0.295, -0.22]</t>
+          <t>[-0.295, -0.220]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>5.23</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[-0.301, -0.21]</t>
+          <t>[-0.301, -0.210]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>5.14</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>4.15</t>
         </is>
       </c>
     </row>
@@ -821,7 +821,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>8.21</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>9.68</t>
         </is>
       </c>
     </row>
